--- a/Data/Workings.xlsx
+++ b/Data/Workings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22980" windowHeight="8010" tabRatio="730" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22980" windowHeight="8010" tabRatio="730" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="PS Areas20-20" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="161">
   <si>
     <t>AS</t>
   </si>
@@ -502,6 +502,21 @@
   </si>
   <si>
     <t>Guinea</t>
+  </si>
+  <si>
+    <t>BET SB By Region</t>
+  </si>
+  <si>
+    <t>BET SB Density By Region</t>
+  </si>
+  <si>
+    <t>Developed</t>
+  </si>
+  <si>
+    <t>Developing</t>
+  </si>
+  <si>
+    <t>Least developed</t>
   </si>
 </sst>
 </file>
@@ -1052,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Q45"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3128,8 +3143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AE111"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView topLeftCell="J4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3183,7 +3198,7 @@
       </c>
       <c r="S5" s="31"/>
       <c r="T5" s="20" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="U5" s="19"/>
       <c r="V5" s="19" t="s">
@@ -3287,7 +3302,7 @@
         <v>347671.28230818699</v>
       </c>
       <c r="P7" s="34">
-        <f t="shared" ref="P7:P18" si="0">O7*$T$19</f>
+        <f t="shared" ref="P7" si="0">O7*$T$19</f>
         <v>3397.0150987618217</v>
       </c>
       <c r="S7" s="33">
@@ -3699,7 +3714,7 @@
         <v>763626.42098120996</v>
       </c>
       <c r="P15" s="34">
-        <f>O15*$T$19</f>
+        <f t="shared" ref="P15:P22" si="2">O15*$T$19</f>
         <v>7461.2158492491535</v>
       </c>
       <c r="S15" s="43"/>
@@ -3746,7 +3761,7 @@
         <v>114207.61310071099</v>
       </c>
       <c r="P16" s="34">
-        <f>O16*$T$19</f>
+        <f t="shared" si="2"/>
         <v>1115.8959794463526</v>
       </c>
       <c r="S16" s="30"/>
@@ -3780,7 +3795,7 @@
         <v>987382.04233714705</v>
       </c>
       <c r="P17" s="34">
-        <f>O17*$T$19</f>
+        <f t="shared" si="2"/>
         <v>9647.47989479426</v>
       </c>
       <c r="S17" s="30"/>
@@ -3800,7 +3815,7 @@
         <v>42756.670891479698</v>
       </c>
       <c r="G18" s="15">
-        <f t="shared" si="1"/>
+        <f>F18/SUM($F$7:$F$38)</f>
         <v>0.1180832318631202</v>
       </c>
       <c r="L18" s="36"/>
@@ -3814,12 +3829,12 @@
         <v>403856.575042293</v>
       </c>
       <c r="P18" s="34">
-        <f>O18*$T$19</f>
+        <f t="shared" si="2"/>
         <v>3945.9885039823444</v>
       </c>
       <c r="S18" s="31"/>
       <c r="T18" s="21" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="AA18" s="36"/>
       <c r="AB18" s="17"/>
@@ -3850,7 +3865,7 @@
         <v>353401.02525346301</v>
       </c>
       <c r="P19" s="34">
-        <f>O19*$T$19</f>
+        <f t="shared" si="2"/>
         <v>3452.9990821610409</v>
       </c>
       <c r="S19" s="33">
@@ -3889,14 +3904,14 @@
         <v>114379.098523685</v>
       </c>
       <c r="P20" s="34">
-        <f>O20*$T$19</f>
+        <f t="shared" si="2"/>
         <v>1117.5715235614512</v>
       </c>
       <c r="S20" s="33">
         <v>2</v>
       </c>
       <c r="T20" s="24">
-        <f t="shared" ref="T19:T20" si="2">T7/Y7</f>
+        <f t="shared" ref="T20" si="3">T7/Y7</f>
         <v>1.3390443043130591E-2</v>
       </c>
       <c r="AA20" s="36"/>
@@ -3928,7 +3943,7 @@
         <v>237.69955879285499</v>
       </c>
       <c r="P21" s="34">
-        <f>O21*$T$19</f>
+        <f t="shared" si="2"/>
         <v>2.3225070095740188</v>
       </c>
       <c r="S21" s="33">
@@ -3967,14 +3982,14 @@
         <v>73794.325497288606</v>
       </c>
       <c r="P22" s="34">
-        <f>O22*$T$19</f>
+        <f t="shared" si="2"/>
         <v>721.02716178618027</v>
       </c>
       <c r="S22" s="33">
         <v>4</v>
       </c>
       <c r="T22" s="24">
-        <f t="shared" ref="T22:T26" si="3">T9/Y9</f>
+        <f t="shared" ref="T22:T25" si="4">T9/Y9</f>
         <v>1.3656489884262249E-2</v>
       </c>
       <c r="AA22" s="36"/>
@@ -4045,7 +4060,7 @@
         <v>6</v>
       </c>
       <c r="T24" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.6813895023243498E-3</v>
       </c>
       <c r="AA24" s="36"/>
@@ -4091,7 +4106,7 @@
         <v>7</v>
       </c>
       <c r="T25" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4715084987666664E-2</v>
       </c>
       <c r="AA25" s="36" t="s">
@@ -4171,7 +4186,7 @@
         <v>3113.0152437651</v>
       </c>
       <c r="P27" s="34">
-        <f t="shared" ref="P26:P29" si="4">O27*$T$20</f>
+        <f t="shared" ref="P27:P29" si="5">O27*$T$20</f>
         <v>41.684653314033866</v>
       </c>
       <c r="S27" s="33">
@@ -4211,7 +4226,7 @@
         <v>320176.81032739102</v>
       </c>
       <c r="P28" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4287.3093424201561</v>
       </c>
       <c r="S28" s="43" t="s">
@@ -4250,7 +4265,7 @@
         <v>2474715.0939910798</v>
       </c>
       <c r="P29" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33137.531514063121</v>
       </c>
       <c r="AA29" s="36"/>
@@ -4388,7 +4403,7 @@
         <v>133120.17756401401</v>
       </c>
       <c r="P33" s="34">
-        <f t="shared" ref="P33:P38" si="5">O33*$T$21</f>
+        <f t="shared" ref="P33:P37" si="6">O33*$T$21</f>
         <v>1710.8871075526449</v>
       </c>
       <c r="Z33" t="s">
@@ -4472,7 +4487,7 @@
         <v>309260.77849472302</v>
       </c>
       <c r="P35" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3974.6812878451919</v>
       </c>
       <c r="AA35" s="36"/>
@@ -4537,7 +4552,7 @@
         <v>14322.494780540699</v>
       </c>
       <c r="P37" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>184.07556327239507</v>
       </c>
       <c r="AA37" s="36"/>
@@ -4712,7 +4727,7 @@
         <v>323186.08640895801</v>
       </c>
       <c r="P44" s="34">
-        <f t="shared" ref="P42:P53" si="6">O44*$T$22</f>
+        <f t="shared" ref="P44:P53" si="7">O44*$T$22</f>
         <v>4413.5875197782407</v>
       </c>
       <c r="AA44" s="36"/>
@@ -4732,7 +4747,7 @@
         <v>3970.1033611940002</v>
       </c>
       <c r="P45" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>54.217676391621417</v>
       </c>
       <c r="AA45" s="36"/>
@@ -4774,7 +4789,7 @@
         <v>745781.63048944098</v>
       </c>
       <c r="P47" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10184.759292647657</v>
       </c>
       <c r="AA47" s="36"/>
@@ -4795,7 +4810,7 @@
         <v>353669.86011761997</v>
       </c>
       <c r="P48" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4829.888867064722</v>
       </c>
       <c r="AA48" s="36"/>
@@ -4815,7 +4830,7 @@
         <v>2379.3514462541102</v>
       </c>
       <c r="P49" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>32.493588956874007</v>
       </c>
       <c r="AA49" s="36"/>
@@ -4836,7 +4851,7 @@
         <v>1245178.5038657901</v>
       </c>
       <c r="P50" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17004.767642143965</v>
       </c>
       <c r="AA50" s="36"/>
@@ -4857,7 +4872,7 @@
         <v>450140.69977979799</v>
       </c>
       <c r="P51" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6147.3419130375414</v>
       </c>
       <c r="AA51" s="36"/>
@@ -4878,7 +4893,7 @@
         <v>286252.80160007603</v>
       </c>
       <c r="P52" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3909.2084893931669</v>
       </c>
       <c r="AA52" s="36"/>
@@ -4899,7 +4914,7 @@
         <v>434893.7943449</v>
       </c>
       <c r="P53" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5939.1227031995541</v>
       </c>
       <c r="AA53" s="36"/>
@@ -4985,7 +5000,7 @@
         <v>1161883.4375813699</v>
       </c>
       <c r="P57" s="34">
-        <f t="shared" ref="P57:P62" si="7">O57*$T$23</f>
+        <f t="shared" ref="P57:P62" si="8">O57*$T$23</f>
         <v>3003.8431001497552</v>
       </c>
       <c r="Z57" t="s">
@@ -5088,7 +5103,7 @@
         <v>107778.487417136</v>
       </c>
       <c r="P61" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>278.64212131853208</v>
       </c>
       <c r="AA61" s="36"/>
@@ -5109,7 +5124,7 @@
         <v>354659.83647060499</v>
       </c>
       <c r="P62" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>916.90996551266221</v>
       </c>
       <c r="AA62" s="36"/>
@@ -5193,7 +5208,7 @@
         <v>130480.233522853</v>
       </c>
       <c r="P66" s="34">
-        <f t="shared" ref="P66:P81" si="8">O66*$T$24</f>
+        <f t="shared" ref="P66:P80" si="9">O66*$T$24</f>
         <v>349.86832842900776</v>
       </c>
       <c r="AA66" s="36"/>
@@ -5219,7 +5234,7 @@
         <v>179764.49390845199</v>
       </c>
       <c r="P67" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>482.0186268567727</v>
       </c>
       <c r="AA67" s="36"/>
@@ -5239,7 +5254,7 @@
         <v>405829.68322990602</v>
       </c>
       <c r="P68" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1088.1874523442862</v>
       </c>
       <c r="AA68" s="36"/>
@@ -5279,7 +5294,7 @@
         <v>127640.95370935</v>
       </c>
       <c r="P70" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>342.25511334291934</v>
       </c>
       <c r="AA70" s="36"/>
@@ -5319,7 +5334,7 @@
         <v>260372.15962910801</v>
       </c>
       <c r="P72" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>698.15917552701012</v>
       </c>
       <c r="AA72" s="36"/>
@@ -5339,7 +5354,7 @@
         <v>215764.68331672499</v>
       </c>
       <c r="P73" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>578.54915681780415</v>
       </c>
       <c r="AA73" s="36"/>
@@ -5359,7 +5374,7 @@
         <v>1519411.7811195999</v>
       </c>
       <c r="P74" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4074.1347996020381</v>
       </c>
       <c r="AA74" s="36"/>
@@ -5379,7 +5394,7 @@
         <v>34293.729101747202</v>
       </c>
       <c r="P75" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>91.954845208980004</v>
       </c>
       <c r="AA75" s="36"/>
@@ -5399,7 +5414,7 @@
         <v>1439136.44123777</v>
       </c>
       <c r="P76" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3858.8853459473798</v>
       </c>
       <c r="AA76" s="36"/>
@@ -5419,7 +5434,7 @@
         <v>75939.438643692396</v>
       </c>
       <c r="P77" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>203.62321359160086</v>
       </c>
       <c r="AA77" s="36"/>
@@ -5439,7 +5454,7 @@
         <v>666052.04173875204</v>
       </c>
       <c r="P78" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1785.9449527199895</v>
       </c>
       <c r="AA78" s="36"/>
@@ -5459,7 +5474,7 @@
         <v>318140.43133428</v>
       </c>
       <c r="P79" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>853.05841284467908</v>
       </c>
       <c r="AA79" s="36"/>
@@ -5479,7 +5494,7 @@
         <v>958707.25814190705</v>
       </c>
       <c r="P80" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2570.66757778387</v>
       </c>
       <c r="AA80" s="36"/>
@@ -5583,7 +5598,7 @@
         <v>185996.260642826</v>
       </c>
       <c r="P85" s="34">
-        <f t="shared" ref="P85:P94" si="9">O85*$T$25</f>
+        <f t="shared" ref="P85:P87" si="10">O85*$T$25</f>
         <v>2736.9507827473849</v>
       </c>
       <c r="AA85" s="36"/>
@@ -5629,7 +5644,7 @@
         <v>91548.427500740596</v>
       </c>
       <c r="P87" s="34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1347.1428911606379</v>
       </c>
       <c r="AA87" s="36"/>
@@ -5904,7 +5919,7 @@
         <v>3473.65243863048</v>
       </c>
       <c r="P100" s="34">
-        <f t="shared" ref="P99:P102" si="10">O100*$T$26</f>
+        <f t="shared" ref="P100" si="11">O100*$T$26</f>
         <v>9.5310843101127585</v>
       </c>
       <c r="AA100" s="36" t="s">
@@ -6099,7 +6114,7 @@
         <v>226739.704084739</v>
       </c>
       <c r="P110" s="34">
-        <f t="shared" ref="P110:P111" si="11">O110*$T$28</f>
+        <f t="shared" ref="P110:P111" si="12">O110*$T$28</f>
         <v>607.97746229294864</v>
       </c>
       <c r="AA110" s="36"/>
@@ -6119,7 +6134,7 @@
         <v>3808010.8290481302</v>
       </c>
       <c r="P111" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10210.7602617471</v>
       </c>
       <c r="AA111" s="37"/>
@@ -7427,8 +7442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AA78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9029,7 +9044,7 @@
         <v>133120.17756401401</v>
       </c>
       <c r="N48" s="34">
-        <f t="shared" ref="N46:N53" si="3">M48*$Q$23</f>
+        <f t="shared" ref="N48:N52" si="3">M48*$Q$23</f>
         <v>6343.4276186614143</v>
       </c>
       <c r="X48" s="33"/>
@@ -9668,8 +9683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:S38"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11216,8 +11231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O41"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X36" sqref="X36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11323,7 +11338,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="4">
-        <f t="shared" ref="N8:N38" si="1">M8/SUM($M$7:$M$38)</f>
+        <f t="shared" ref="N8:N37" si="1">M8/SUM($M$7:$M$38)</f>
         <v>0</v>
       </c>
     </row>
@@ -12129,40 +12144,58 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G38"/>
+  <dimension ref="A3:K38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>76</v>
       </c>
       <c r="B3" s="2">
-        <v>43650</v>
+        <v>43726</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J3" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="K3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J4" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J5" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -12173,7 +12206,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
         <v>0</v>
@@ -12183,23 +12216,23 @@
       </c>
       <c r="G7" s="4">
         <f>F7/SUM($F$7:$F$38)</f>
-        <v>3.125E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.0303030303030304E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" ref="G8:G37" si="0">F8/SUM($F$7:$F$38)</f>
-        <v>3.125E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5151515151515152E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
         <v>2</v>
@@ -12209,23 +12242,23 @@
       </c>
       <c r="G9" s="4">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.0303030303030304E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5151515151515152E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
         <v>4</v>
@@ -12235,23 +12268,23 @@
       </c>
       <c r="G11" s="4">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.0303030303030304E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F12" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5151515151515152E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
         <v>6</v>
@@ -12261,10 +12294,10 @@
       </c>
       <c r="G13" s="4">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.0303030303030304E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
         <v>7</v>
@@ -12274,10 +12307,10 @@
       </c>
       <c r="G14" s="4">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.0303030303030304E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
         <v>8</v>
@@ -12287,10 +12320,10 @@
       </c>
       <c r="G15" s="4">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.0303030303030304E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
         <v>9</v>
@@ -12300,7 +12333,7 @@
       </c>
       <c r="G16" s="4">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>3.0303030303030304E-2</v>
       </c>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.25">
@@ -12313,7 +12346,7 @@
       </c>
       <c r="G17" s="4">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>3.0303030303030304E-2</v>
       </c>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.25">
@@ -12322,11 +12355,11 @@
         <v>11</v>
       </c>
       <c r="F18" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>1.5151515151515152E-2</v>
       </c>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.25">
@@ -12335,11 +12368,11 @@
         <v>12</v>
       </c>
       <c r="F19" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>6.0606060606060608E-2</v>
       </c>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.25">
@@ -12352,7 +12385,7 @@
       </c>
       <c r="G20" s="4">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>3.0303030303030304E-2</v>
       </c>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.25">
@@ -12365,7 +12398,7 @@
       </c>
       <c r="G21" s="4">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>3.0303030303030304E-2</v>
       </c>
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.25">
@@ -12378,7 +12411,7 @@
       </c>
       <c r="G22" s="4">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>3.0303030303030304E-2</v>
       </c>
     </row>
     <row r="23" spans="4:7" x14ac:dyDescent="0.25">
@@ -12391,7 +12424,7 @@
       </c>
       <c r="G23" s="4">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>3.0303030303030304E-2</v>
       </c>
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.25">
@@ -12400,11 +12433,11 @@
         <v>17</v>
       </c>
       <c r="F24" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>1.5151515151515152E-2</v>
       </c>
     </row>
     <row r="25" spans="4:7" x14ac:dyDescent="0.25">
@@ -12417,7 +12450,7 @@
       </c>
       <c r="G25" s="4">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>3.0303030303030304E-2</v>
       </c>
     </row>
     <row r="26" spans="4:7" x14ac:dyDescent="0.25">
@@ -12430,7 +12463,7 @@
       </c>
       <c r="G26" s="4">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>3.0303030303030304E-2</v>
       </c>
     </row>
     <row r="27" spans="4:7" x14ac:dyDescent="0.25">
@@ -12443,7 +12476,7 @@
       </c>
       <c r="G27" s="4">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>3.0303030303030304E-2</v>
       </c>
     </row>
     <row r="28" spans="4:7" x14ac:dyDescent="0.25">
@@ -12456,7 +12489,7 @@
       </c>
       <c r="G28" s="4">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>3.0303030303030304E-2</v>
       </c>
     </row>
     <row r="29" spans="4:7" x14ac:dyDescent="0.25">
@@ -12469,7 +12502,7 @@
       </c>
       <c r="G29" s="4">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>3.0303030303030304E-2</v>
       </c>
     </row>
     <row r="30" spans="4:7" x14ac:dyDescent="0.25">
@@ -12482,7 +12515,7 @@
       </c>
       <c r="G30" s="4">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>3.0303030303030304E-2</v>
       </c>
     </row>
     <row r="31" spans="4:7" x14ac:dyDescent="0.25">
@@ -12491,11 +12524,11 @@
         <v>24</v>
       </c>
       <c r="F31" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>6.0606060606060608E-2</v>
       </c>
     </row>
     <row r="32" spans="4:7" x14ac:dyDescent="0.25">
@@ -12508,7 +12541,7 @@
       </c>
       <c r="G32" s="4">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>3.0303030303030304E-2</v>
       </c>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.25">
@@ -12521,7 +12554,7 @@
       </c>
       <c r="G33" s="4">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>3.0303030303030304E-2</v>
       </c>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.25">
@@ -12534,7 +12567,7 @@
       </c>
       <c r="G34" s="4">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>3.0303030303030304E-2</v>
       </c>
     </row>
     <row r="35" spans="4:7" x14ac:dyDescent="0.25">
@@ -12543,11 +12576,11 @@
         <v>28</v>
       </c>
       <c r="F35" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" s="4">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>6.0606060606060608E-2</v>
       </c>
     </row>
     <row r="36" spans="4:7" x14ac:dyDescent="0.25">
@@ -12556,11 +12589,11 @@
         <v>29</v>
       </c>
       <c r="F36" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G36" s="4">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>1.5151515151515152E-2</v>
       </c>
     </row>
     <row r="37" spans="4:7" x14ac:dyDescent="0.25">
@@ -12569,11 +12602,11 @@
         <v>30</v>
       </c>
       <c r="F37" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37" s="4">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>6.0606060606060608E-2</v>
       </c>
     </row>
     <row r="38" spans="4:7" x14ac:dyDescent="0.25">
@@ -12586,7 +12619,7 @@
       </c>
       <c r="G38" s="5">
         <f>F38/SUM($F$7:$F$38)</f>
-        <v>3.125E-2</v>
+        <v>3.0303030303030304E-2</v>
       </c>
     </row>
   </sheetData>
@@ -12598,8 +12631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:U56"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+    <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N59" sqref="N59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
